--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.793982604097762</v>
+        <v>5.085713215393493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3210591056297522</v>
+        <v>0.3415355496678413</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1218776040016733</v>
+        <v>0.1288179347496836</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.733921015170595</v>
+        <v>5.731942003752833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3770641080466758</v>
+        <v>0.3769729825698531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1466093089235342</v>
+        <v>0.1465318594127601</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.559492095623867</v>
+        <v>3.906603369372877</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3056020712536353</v>
+        <v>0.2484458660875583</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119919550086983</v>
+        <v>0.09289882775739194</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.743011771832698</v>
+        <v>4.11090873509638</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3772538132143097</v>
+        <v>0.2611545380788511</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1467104739015594</v>
+        <v>0.09884773424311868</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.420920789620316</v>
+        <v>4.029158229456961</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2957352413191298</v>
+        <v>0.2552346282190484</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1151386270204857</v>
+        <v>0.09411881718940698</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.775202414139617</v>
+        <v>3.906451132862624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3205085869347231</v>
+        <v>0.2484054623312441</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1230294824012936</v>
+        <v>0.09294747990957909</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.500785754495994</v>
+        <v>3.923737641821313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3021042126391991</v>
+        <v>0.2500238334692736</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1160137678662383</v>
+        <v>0.09296914007540008</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.085713215393493</v>
+        <v>3.885955216840374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3415355496678413</v>
+        <v>0.2474571462424832</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1288179347496836</v>
+        <v>0.0927619164726691</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.744341039620774</v>
+        <v>3.880415447772181</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3775093861475724</v>
+        <v>0.2466509893928991</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1462572402508021</v>
+        <v>0.09394553746076144</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.731942003752833</v>
+        <v>4.000057340127051</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3769729825698531</v>
+        <v>0.2545540680318694</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1465318594127601</v>
+        <v>0.09645062782769055</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.03216904582106</v>
+        <v>8.820118521522048</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3436209252867154</v>
+        <v>0.341197571984564</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1395509322608996</v>
+        <v>0.2062175354086457</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.444461087871478</v>
+        <v>9.438191323649491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6193855215953591</v>
+        <v>0.6587902841000498</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1911141424405731</v>
+        <v>0.210178306198397</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.498169475631027</v>
+        <v>9.659328214314444</v>
       </c>
       <c r="C12" t="n">
-        <v>0.624067240171611</v>
+        <v>0.6781781706890669</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1922660115548682</v>
+        <v>0.2143905607797999</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.117092615669071</v>
+        <v>9.227418865621519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6767417848678565</v>
+        <v>0.6422609209294532</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2046919978940362</v>
+        <v>0.2073114197835011</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.820118521522048</v>
+        <v>8.852548347431112</v>
       </c>
       <c r="C10" t="n">
-        <v>0.341197571984564</v>
+        <v>0.3552772668019542</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2062175354086457</v>
+        <v>0.2052739403298407</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.438191323649491</v>
+        <v>9.320730315318004</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6587902841000498</v>
+        <v>0.6486740256851513</v>
       </c>
       <c r="D11" t="n">
-        <v>0.210178306198397</v>
+        <v>0.2088461540494541</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.659328214314444</v>
+        <v>9.495830410289347</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6781781706890669</v>
+        <v>0.6639069306318293</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2143905607797999</v>
+        <v>0.2116412716423048</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.227418865621519</v>
+        <v>9.27364970360299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6422609209294532</v>
+        <v>0.646240030457338</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2073114197835011</v>
+        <v>0.2080109781207875</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.302348917345075</v>
+        <v>9.317816008795305</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6491212089651307</v>
+        <v>0.6504933965157934</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2080945487711877</v>
+        <v>0.208340910855227</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.317816008795305</v>
+        <v>9.296809019846879</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6504933965157934</v>
+        <v>0.6485061083538568</v>
       </c>
       <c r="D11" t="n">
-        <v>0.208340910855227</v>
+        <v>0.2080494493986777</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.296809019846879</v>
+        <v>9.296734043654698</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6485061083538568</v>
+        <v>0.6487134868058185</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2080494493986777</v>
+        <v>0.2080349593112748</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.296734043654698</v>
+        <v>9.304747755462929</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6487134868058185</v>
+        <v>0.6496722735909528</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2080349593112748</v>
+        <v>0.2080606876703587</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.906603369372877</v>
+        <v>3.907004291592377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2484458660875583</v>
+        <v>0.2484390443039256</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09289882775739194</v>
+        <v>0.09288110395468072</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.008724499072777</v>
+        <v>4.020243367903353</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2547558270012615</v>
+        <v>0.2555599226346386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09724708504053944</v>
+        <v>0.09744368530431947</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.029158229456961</v>
+        <v>5.250024748055531</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2552346282190484</v>
+        <v>0.3348150467794941</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09411881718940698</v>
+        <v>0.1183608231772617</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.906451132862624</v>
+        <v>3.909114033970901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2484054623312441</v>
+        <v>0.2485367990262275</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09294747990957909</v>
+        <v>0.09288188887732857</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.923737641821313</v>
+        <v>3.925023753896344</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2500238334692736</v>
+        <v>0.2501944881066461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09296914007540008</v>
+        <v>0.09295344749311849</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.885955216840374</v>
+        <v>3.933036302264842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2474571462424832</v>
+        <v>0.2524997273810131</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0927619164726691</v>
+        <v>0.09262330231412101</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.823404864662825</v>
+        <v>3.918259748690753</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2427917315404764</v>
+        <v>0.2489996300726573</v>
       </c>
       <c r="D8" t="n">
-        <v>0.093752913233764</v>
+        <v>0.09561187365666197</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.86136304273552</v>
+        <v>3.960291020721195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2453336225540492</v>
+        <v>0.2511070201567127</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09392101057276432</v>
+        <v>0.09643315687804331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.304747755462929</v>
+        <v>9.303320214686735</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6496722735909528</v>
+        <v>0.6490740372770853</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2080606876703587</v>
+        <v>0.2080926190753207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.521644292241675</v>
+        <v>9.629395230656733</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6695071327664441</v>
+        <v>0.6787255629623757</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2113918082633492</v>
+        <v>0.2134973535963433</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.907004291592377</v>
+        <v>7.811859963215451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2484390443039256</v>
+        <v>0.2485402113742972</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09288110395468072</v>
+        <v>0.0928571342637175</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.020243367903353</v>
+        <v>8.011813117631725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2555599226346386</v>
+        <v>0.2546693400163808</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09744368530431947</v>
+        <v>0.09712813064765942</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.250024748055531</v>
+        <v>8.36911253062442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3348150467794941</v>
+        <v>0.2665692135113952</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1183608231772617</v>
+        <v>0.09515382818006818</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.909114033970901</v>
+        <v>7.793231852491907</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2485367990262275</v>
+        <v>0.2479701603783144</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09288188887732857</v>
+        <v>0.09268900864707952</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.925023753896344</v>
+        <v>7.850125564586534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2501944881066461</v>
+        <v>0.2500641518674251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09295344749311849</v>
+        <v>0.0929344944843937</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.933036302264842</v>
+        <v>8.028505047856658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2524997273810131</v>
+        <v>0.2562481909124421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09262330231412101</v>
+        <v>0.09540732486933139</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.918259748690753</v>
+        <v>7.825202890987515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2489996300726573</v>
+        <v>0.2486844193656258</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09561187365666197</v>
+        <v>0.09555365334676172</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.960291020721195</v>
+        <v>7.791015581507202</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2511070201567127</v>
+        <v>0.2475699942956235</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09643315687804331</v>
+        <v>0.09537119046351859</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.852548347431112</v>
+        <v>7.818178711408534</v>
       </c>
       <c r="C10" t="n">
         <v>0.3552772668019542</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.303320214686735</v>
+        <v>18.62190258597805</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6490740372770853</v>
+        <v>0.6498548760877331</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2080926190753207</v>
+        <v>0.2082221024413818</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.629395230656733</v>
+        <v>19.25879046131347</v>
       </c>
       <c r="C12" t="n">
         <v>0.6787255629623757</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.369273820108399</v>
+        <v>18.73854764021679</v>
       </c>
       <c r="C13" t="n">
         <v>0.6513626670740793</v>

--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_treino.xlsx
+++ b/Modelos em Python/1_Erros_treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="12">
